--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,38 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sales_ Passenger Car" r:id="rId3" sheetId="1"/>
+    <sheet state="visible" name="Sales_ Passenger Car" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="f4a8vkM+5khiIxkoncMFhiPl14/8FnxRdmJCg30E44c="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C134">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA5-8rEjM
+Chengcheng Qiu    (2023-10-02 14:17:29)
+do these empty cells mean zero sale or lack of information? @lauri@energyandcleanair.org
+------
+ID#AAAA6aRpMYI
+Lauri Myllyvirta    (2023-10-03 11:03:53)
+definitely not zero sales. I would assume that you can find annual numbers for 2015 and 2016 by googling, if not use the share for the months for which data exists
+------
+ID#AAAA5MtLVvo
+Chengcheng Qiu    (2023-10-03 11:47:51)
+thank you, annual numbers for 2015 and 2016 are updated now</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjoh6yxHL8hVqPaCsM62fFY+TEfYA=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sales: Passenger Car</t>
+  </si>
+  <si>
+    <t>Sales: Passenger Car: Battery Electric</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>S0105711</t>
+  </si>
+  <si>
+    <t>S6129663</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>2005-01:2022-11</t>
+  </si>
+  <si>
+    <t>2015-01:2022-11</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>China Association of Automobile Manufacturers</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>'2022-12-15</t>
+  </si>
+  <si>
+    <t>数据来源：Wind</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-MM"/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,2278 +139,3230 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.0" customWidth="true"/>
-    <col min="2" max="2" width="24.0" customWidth="true"/>
-    <col min="3" max="3" width="24.0" customWidth="true"/>
+    <col customWidth="1" min="1" max="1" width="15.0"/>
+    <col customWidth="1" min="2" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sales: Passenger Car</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sales: Passenger Car: Battery Electric</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S0105711</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S6129663</t>
-        </is>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Time Period</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2005-01:2022-11</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2015-01:2022-11</t>
-        </is>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>China Association of Automobile Manufacturers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>China Association of Automobile Manufacturers</t>
-        </is>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>'2022-12-15</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>'2022-12-15</t>
-        </is>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2">
         <v>38383.0</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3">
         <v>243053.0</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2">
         <v>38411.0</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3">
         <v>213534.0</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2">
         <v>38442.0</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3">
         <v>355752.0</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2">
         <v>38472.0</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3">
         <v>337033.0</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2">
         <v>38503.0</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3">
         <v>317390.0</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2">
         <v>38533.0</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3">
         <v>375472.0</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2">
         <v>38564.0</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3">
         <v>315648.0</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2">
         <v>38595.0</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3">
         <v>292435.0</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2">
         <v>38625.0</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3">
         <v>354040.0</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2">
         <v>38656.0</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3">
         <v>319885.0</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2">
         <v>38686.0</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3">
         <v>393615.0</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2">
         <v>38717.0</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3">
         <v>455767.0</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2">
         <v>38748.0</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3">
         <v>418942.0</v>
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
         <v>38776.0</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3">
         <v>344493.0</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
         <v>38807.0</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3">
         <v>485957.0</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
         <v>38837.0</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3">
         <v>468438.0</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
         <v>38868.0</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3">
         <v>393613.0</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2">
         <v>38898.0</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3">
         <v>396433.0</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
         <v>38929.0</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3">
         <v>332587.0</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
         <v>38960.0</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3">
         <v>377953.0</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
         <v>38990.0</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3">
         <v>455701.0</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
         <v>39021.0</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3">
         <v>409962.0</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
         <v>39051.0</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3">
         <v>499655.0</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
         <v>39082.0</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3">
         <v>564812.0</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
         <v>39113.0</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3">
         <v>552518.0</v>
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
         <v>39141.0</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3">
         <v>417651.0</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2">
         <v>39172.0</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3">
         <v>567000.0</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
         <v>39202.0</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3">
         <v>545824.0</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2">
         <v>39233.0</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3">
         <v>488490.0</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2">
         <v>39263.0</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3">
         <v>511934.0</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2">
         <v>39294.0</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3">
         <v>457162.0</v>
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2">
         <v>39325.0</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3">
         <v>481342.0</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2">
         <v>39355.0</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3">
         <v>560976.0</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2">
         <v>39386.0</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3">
         <v>496928.0</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2">
         <v>39416.0</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3">
         <v>582750.0</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2">
         <v>39447.0</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3">
         <v>635346.0</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2">
         <v>39478.0</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3">
         <v>661938.0</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
         <v>39507.0</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3">
         <v>488864.0</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2">
         <v>39538.0</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3">
         <v>700505.0</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2">
         <v>39568.0</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="3">
         <v>604920.0</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
         <v>39599.0</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="3">
         <v>564637.0</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
         <v>39629.0</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="3">
         <v>588361.0</v>
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
         <v>39660.0</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="3">
         <v>488219.0</v>
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
         <v>39691.0</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="3">
         <v>451299.0</v>
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2">
         <v>39721.0</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="3">
         <v>552808.0</v>
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2">
         <v>39752.0</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="3">
         <v>538457.0</v>
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2">
         <v>39782.0</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="3">
         <v>522843.0</v>
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2">
         <v>39813.0</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="3">
         <v>584609.0</v>
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2">
         <v>39844.0</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3">
         <v>610596.0</v>
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2">
         <v>39872.0</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3">
         <v>607299.0</v>
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2">
         <v>39903.0</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="3">
         <v>772353.0</v>
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
         <v>39933.0</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="3">
         <v>830974.0</v>
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
         <v>39964.0</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="3">
         <v>829071.0</v>
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="2">
         <v>39994.0</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3">
         <v>872894.0</v>
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="2">
         <v>40025.0</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="3">
         <v>832596.0</v>
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="2">
         <v>40056.0</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="3">
         <v>858278.0</v>
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="2">
         <v>40086.0</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="3">
         <v>1015069.0</v>
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="2">
         <v>40117.0</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="3">
         <v>946463.0</v>
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2">
         <v>40147.0</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="3">
         <v>1036422.0</v>
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2">
         <v>40178.0</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="3">
         <v>1103348.0</v>
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2">
         <v>40209.0</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3">
         <v>1315990.0</v>
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2">
         <v>40237.0</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="3">
         <v>942942.0</v>
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2">
         <v>40268.0</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3">
         <v>1264958.0</v>
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="2">
         <v>40298.0</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="3">
         <v>1110874.0</v>
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2">
         <v>40329.0</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="3">
         <v>1043220.0</v>
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2">
         <v>40359.0</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3">
         <v>1042818.0</v>
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="2">
         <v>40390.0</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="3">
         <v>946172.0</v>
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="2">
         <v>40421.0</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3">
         <v>1018977.0</v>
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="2">
         <v>40451.0</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3">
         <v>1211428.0</v>
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="2">
         <v>40482.0</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="3">
         <v>1203174.0</v>
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="2">
         <v>40512.0</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="3">
         <v>1339756.0</v>
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2">
         <v>40543.0</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="3">
         <v>1308575.0</v>
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="2">
         <v>40574.0</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="3">
         <v>1528965.0</v>
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="2">
         <v>40602.0</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="3">
         <v>967242.0</v>
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="2">
         <v>40633.0</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="3">
         <v>1347569.0</v>
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="2">
         <v>40663.0</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="3">
         <v>1142320.0</v>
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="2">
         <v>40694.0</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="3">
         <v>1042862.0</v>
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="2">
         <v>40724.0</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="3">
         <v>1109210.0</v>
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="2">
         <v>40755.0</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="3">
         <v>1011842.0</v>
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="2">
         <v>40786.0</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="3">
         <v>1095170.0</v>
       </c>
       <c r="C87" s="3"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="2">
         <v>40816.0</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="3">
         <v>1319502.0</v>
       </c>
       <c r="C88" s="3"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="2">
         <v>40847.0</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="3">
         <v>1220779.0</v>
       </c>
       <c r="C89" s="3"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2">
         <v>40877.0</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="3">
         <v>1343668.0</v>
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="2">
         <v>40908.0</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="3">
         <v>1368891.0</v>
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="2">
         <v>40939.0</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="3">
         <v>1160590.0</v>
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="2">
         <v>40968.0</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="3">
         <v>1213123.0</v>
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="2">
         <v>40999.0</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="3">
         <v>1399966.0</v>
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="2">
         <v>41029.0</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="3">
         <v>1276038.0</v>
       </c>
       <c r="C95" s="3"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="2">
         <v>41060.0</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="3">
         <v>1281907.0</v>
       </c>
       <c r="C96" s="3"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="2">
         <v>41090.0</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="3">
         <v>1284175.0</v>
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="2">
         <v>41121.0</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="3">
         <v>1120206.0</v>
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="2">
         <v>41152.0</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="3">
         <v>1218884.0</v>
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="2">
         <v>41182.0</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="3">
         <v>1315572.0</v>
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="2">
         <v>41213.0</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="3">
         <v>1298931.0</v>
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="2">
         <v>41243.0</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="3">
         <v>1461303.0</v>
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="2">
         <v>41274.0</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="3">
         <v>1462874.0</v>
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="2">
         <v>41305.0</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="3">
         <v>1725525.0</v>
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="2">
         <v>41333.0</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="3">
         <v>1111892.0</v>
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="2">
         <v>41364.0</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="3">
         <v>1585451.0</v>
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="2">
         <v>41394.0</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="3">
         <v>1441400.0</v>
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="2">
         <v>41425.0</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="3">
         <v>1397111.0</v>
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="2">
         <v>41455.0</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="3">
         <v>1403516.0</v>
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="2">
         <v>41486.0</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="3">
         <v>1237625.0</v>
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="2">
         <v>41517.0</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="3">
         <v>1353235.0</v>
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="2">
         <v>41547.0</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="3">
         <v>1593512.0</v>
       </c>
       <c r="C112" s="3"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="2">
         <v>41578.0</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="3">
         <v>1605748.0</v>
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="2">
         <v>41608.0</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="3">
         <v>1696278.0</v>
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="2">
         <v>41639.0</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="3">
         <v>1776937.0</v>
       </c>
       <c r="C115" s="3"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="2">
         <v>41670.0</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="3">
         <v>1846846.0</v>
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="2">
         <v>41698.0</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="3">
         <v>1312197.0</v>
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="2">
         <v>41729.0</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="3">
         <v>1710067.0</v>
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="2">
         <v>41759.0</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="3">
         <v>1609035.0</v>
       </c>
       <c r="C119" s="3"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="2">
         <v>41790.0</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="3">
         <v>1590354.0</v>
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="2">
         <v>41820.0</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="3">
         <v>1564117.0</v>
       </c>
       <c r="C121" s="3"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="2">
         <v>41851.0</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="3">
         <v>1357948.0</v>
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="2">
         <v>41882.0</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="3">
         <v>1468166.0</v>
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="2">
         <v>41912.0</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="3">
         <v>1696001.0</v>
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="2">
         <v>41943.0</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="3">
         <v>1708861.0</v>
       </c>
       <c r="C125" s="3"/>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="2">
         <v>41973.0</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="3">
         <v>1775320.0</v>
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="2">
         <v>42004.0</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="3">
         <v>2061044.0</v>
       </c>
       <c r="C127" s="3"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="2">
         <v>42035.0</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="3">
         <v>2038003.0</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="3">
         <v>2050.0</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="2">
         <v>42063.0</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="3">
         <v>1396733.0</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="3">
         <v>2118.0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="2">
         <v>42094.0</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="3">
         <v>1870357.0</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="3">
         <v>5610.0</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="2">
         <v>42124.0</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="3">
         <v>1668824.0</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="3">
         <v>4664.0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="2">
         <v>42155.0</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="3">
         <v>1609274.0</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="3">
         <v>5537.0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="2">
         <v>42185.0</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="3">
         <v>1511439.0</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="3">
         <v>6336.0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="2">
         <v>42216.0</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="3">
         <v>1268597.0</v>
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="2">
         <v>42247.0</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="3">
         <v>1418462.0</v>
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="2">
         <v>42277.0</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="3">
         <v>1751215.0</v>
       </c>
       <c r="C136" s="3"/>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="2">
         <v>42308.0</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="3">
         <v>1936875.0</v>
       </c>
       <c r="C137" s="3"/>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="2">
         <v>42338.0</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="3">
         <v>2196773.0</v>
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="2">
         <v>42369.0</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="3">
         <v>2442126.0</v>
       </c>
       <c r="C139" s="3"/>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="2">
         <v>42400.0</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="3">
         <v>2228705.0</v>
       </c>
       <c r="C140" s="3"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="2">
         <v>42429.0</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="3">
         <v>1376681.0</v>
       </c>
       <c r="C141" s="3"/>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="2">
         <v>42460.0</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="3">
         <v>2055706.0</v>
       </c>
       <c r="C142" s="3"/>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="2">
         <v>42490.0</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="3">
         <v>1779130.0</v>
       </c>
       <c r="C143" s="3"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="2">
         <v>42521.0</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="3">
         <v>1793035.0</v>
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="2">
         <v>42551.0</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="3">
         <v>1784053.0</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="3">
         <v>25145.0</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="2">
         <v>42582.0</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="3">
         <v>1604530.0</v>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="3">
         <v>20640.0</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="2">
         <v>42613.0</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="3">
         <v>1795512.0</v>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="C147" s="3">
         <v>22286.0</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="2">
         <v>42643.0</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="3">
         <v>2268338.0</v>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="C148" s="3">
         <v>24063.0</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="2">
         <v>42674.0</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="3">
         <v>2344128.0</v>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="C149" s="3">
         <v>28264.0</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="2">
         <v>42704.0</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="3">
         <v>2590157.0</v>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="C150" s="3">
         <v>41172.0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="2">
         <v>42735.0</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="3">
         <v>2672264.0</v>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="C151" s="3">
         <v>40383.0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="2">
         <v>42766.0</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="3">
         <v>2218215.0</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="3">
         <v>3936.0</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="2">
         <v>42794.0</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="3">
         <v>1632748.0</v>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="C153" s="3">
         <v>13346.0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="2">
         <v>42825.0</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="3">
         <v>2096286.0</v>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="C154" s="3">
         <v>23677.0</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="2">
         <v>42855.0</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="3">
         <v>1722243.0</v>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C155" s="3">
         <v>25413.0</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="2">
         <v>42886.0</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="3">
         <v>1751294.0</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="C156" s="3">
         <v>32437.0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="2">
         <v>42916.0</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="3">
         <v>1831847.0</v>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="C157" s="3">
         <v>33457.0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="2">
         <v>42947.0</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="3">
         <v>1678433.0</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="3">
         <v>33772.0</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="2">
         <v>42978.0</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="3">
         <v>1875193.0</v>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="3">
         <v>43847.0</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="2">
         <v>43008.0</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="3">
         <v>2342567.0</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="3">
         <v>48182.0</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="2">
         <v>43039.0</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="3">
         <v>2352462.0</v>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="3">
         <v>54894.0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="2">
         <v>43069.0</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="3">
         <v>2589477.0</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="3">
         <v>72582.0</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="2">
         <v>43100.0</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="3">
         <v>2653255.0</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="3">
         <v>84887.0</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="2">
         <v>43131.0</v>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="3">
         <v>2456157.0</v>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="3">
         <v>22367.0</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="2">
         <v>43159.0</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="3">
         <v>1475512.0</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="3">
         <v>21315.0</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="2">
         <v>43190.0</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="3">
         <v>2168570.0</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="3">
         <v>46217.0</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="2">
         <v>43220.0</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="3">
         <v>1914369.0</v>
       </c>
-      <c r="C167" s="3" t="n">
+      <c r="C167" s="3">
         <v>55318.0</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="2">
         <v>43251.0</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="3">
         <v>1889414.0</v>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="C168" s="3">
         <v>65071.0</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="2">
         <v>43281.0</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="3">
         <v>1874181.0</v>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="C169" s="3">
         <v>51619.0</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="2">
         <v>43312.0</v>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="3">
         <v>1589544.0</v>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="C170" s="3">
         <v>50211.0</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="2">
         <v>43343.0</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="3">
         <v>1789871.0</v>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="C171" s="3">
         <v>62413.0</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="2">
         <v>43373.0</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="3">
         <v>2060478.0</v>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="C172" s="3">
         <v>80014.0</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="2">
         <v>43404.0</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="3">
         <v>2046840.0</v>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="C173" s="3">
         <v>94092.0</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="2">
         <v>43434.0</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="3">
         <v>2173485.0</v>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="C174" s="3">
         <v>108834.0</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="2">
         <v>43465.0</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="3">
         <v>2233108.0</v>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="C175" s="3">
         <v>134806.0</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="2">
         <v>43496.0</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="3">
         <v>2021089.0</v>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="C176" s="3">
         <v>64800.0</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="2">
         <v>43524.0</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="3">
         <v>1219497.0</v>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="C177" s="3">
         <v>36298.0</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="2">
         <v>43555.0</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="3">
         <v>2019443.0</v>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="C178" s="3">
         <v>84537.0</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="2">
         <v>43585.0</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="3">
         <v>1574877.0</v>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="C179" s="3">
         <v>64124.0</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="2">
         <v>43616.0</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="3">
         <v>1561172.0</v>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="C180" s="3">
         <v>74844.0</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="2">
         <v>43646.0</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="3">
         <v>1727910.0</v>
       </c>
-      <c r="C181" s="3" t="n">
+      <c r="C181" s="3">
         <v>115410.0</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="2">
         <v>43677.0</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="3">
         <v>1527912.0</v>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="C182" s="3">
         <v>48115.0</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="2">
         <v>43708.0</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="3">
         <v>1652908.0</v>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="C183" s="3">
         <v>63313.0</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="2">
         <v>43738.0</v>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="3">
         <v>1930637.0</v>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="C184" s="3">
         <v>56209.0</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="2">
         <v>43769.0</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="3">
         <v>1927669.0</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="C185" s="3">
         <v>49883.0</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="2">
         <v>43799.0</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="3">
         <v>2056669.0</v>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="C186" s="3">
         <v>62968.0</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="2">
         <v>43830.0</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="3">
         <v>2213089.0</v>
       </c>
-      <c r="C187" s="3" t="n">
+      <c r="C187" s="3">
         <v>105026.0</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="2">
         <v>43861.0</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="3">
         <v>1606851.0</v>
       </c>
-      <c r="C188" s="3" t="n">
+      <c r="C188" s="3">
         <v>29269.0</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="2">
         <v>43890.0</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="3">
         <v>223605.0</v>
       </c>
-      <c r="C189" s="3" t="n">
+      <c r="C189" s="3">
         <v>9291.0</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="2">
         <v>43921.0</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="3">
         <v>1042689.0</v>
       </c>
-      <c r="C190" s="3" t="n">
+      <c r="C190" s="3">
         <v>34519.0</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="2">
         <v>43951.0</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="3">
         <v>1536206.0</v>
       </c>
-      <c r="C191" s="3" t="n">
+      <c r="C191" s="3">
         <v>43094.0</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="2">
         <v>43982.0</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="3">
         <v>1673682.0</v>
       </c>
-      <c r="C192" s="3" t="n">
+      <c r="C192" s="3">
         <v>57248.0</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="2">
         <v>44012.0</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="3">
         <v>1763626.0</v>
       </c>
-      <c r="C193" s="3" t="n">
+      <c r="C193" s="3">
         <v>71719.0</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="2">
         <v>44043.0</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="3">
         <v>1664689.0</v>
       </c>
-      <c r="C194" s="3" t="n">
+      <c r="C194" s="3">
         <v>69536.0</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="2">
         <v>44074.0</v>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="3">
         <v>1754529.0</v>
       </c>
-      <c r="C195" s="3" t="n">
+      <c r="C195" s="3">
         <v>79722.0</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="2">
         <v>44104.0</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="3">
         <v>2088191.0</v>
       </c>
-      <c r="C196" s="3" t="n">
+      <c r="C196" s="3">
         <v>99945.0</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="2">
         <v>44135.0</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="3">
         <v>2109557.0</v>
       </c>
-      <c r="C197" s="3" t="n">
+      <c r="C197" s="3">
         <v>121575.0</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="2">
         <v>44165.0</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="3">
         <v>2297401.0</v>
       </c>
-      <c r="C198" s="3" t="n">
+      <c r="C198" s="3">
         <v>154353.0</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="2">
         <v>44196.0</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="3">
         <v>2375101.0</v>
       </c>
-      <c r="C199" s="3" t="n">
+      <c r="C199" s="3">
         <v>188709.0</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="2">
         <v>44227.0</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="3">
         <v>2044769.0</v>
       </c>
-      <c r="C200" s="3" t="n">
+      <c r="C200" s="3">
         <v>143436.0</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="2">
         <v>44255.0</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="3">
         <v>1155887.0</v>
       </c>
-      <c r="C201" s="3" t="n">
+      <c r="C201" s="3">
         <v>88932.0</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="2">
         <v>44286.0</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="3">
         <v>1874311.0</v>
       </c>
-      <c r="C202" s="3" t="n">
+      <c r="C202" s="3">
         <v>175946.0</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="2">
         <v>44316.0</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="3">
         <v>1704040.0</v>
       </c>
-      <c r="C203" s="3" t="n">
+      <c r="C203" s="3">
         <v>157882.0</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="2">
         <v>44347.0</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="3">
         <v>1646037.0</v>
       </c>
-      <c r="C204" s="3" t="n">
+      <c r="C204" s="3">
         <v>165722.0</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="2">
         <v>44377.0</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="3">
         <v>1569081.0</v>
       </c>
-      <c r="C205" s="3" t="n">
+      <c r="C205" s="3">
         <v>197791.0</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="2">
         <v>44408.0</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="3">
         <v>1551395.0</v>
       </c>
-      <c r="C206" s="3" t="n">
+      <c r="C206" s="3">
         <v>206173.0</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="2">
         <v>44439.0</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="3">
         <v>1551987.0</v>
       </c>
-      <c r="C207" s="3" t="n">
+      <c r="C207" s="3">
         <v>251043.0</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="2">
         <v>44469.0</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="3">
         <v>1750517.0</v>
       </c>
-      <c r="C208" s="3" t="n">
+      <c r="C208" s="3">
         <v>280549.0</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="2">
         <v>44500.0</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="3">
         <v>2006816.0</v>
       </c>
-      <c r="C209" s="3" t="n">
+      <c r="C209" s="3">
         <v>298201.0</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="2">
         <v>44530.0</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="3">
         <v>2191953.0</v>
       </c>
-      <c r="C210" s="3" t="n">
+      <c r="C210" s="3">
         <v>339204.0</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="2">
         <v>44561.0</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="3">
         <v>2421558.0</v>
       </c>
-      <c r="C211" s="3" t="n">
+      <c r="C211" s="3">
         <v>416018.0</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="2">
         <v>44592.0</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="3">
         <v>2186344.0</v>
       </c>
-      <c r="C212" s="3" t="n">
+      <c r="C212" s="3">
         <v>334559.0</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="2">
         <v>44620.0</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="3">
         <v>1487442.0</v>
       </c>
-      <c r="C213" s="3" t="n">
+      <c r="C213" s="3">
         <v>246049.0</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="2">
         <v>44651.0</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="3">
         <v>1864360.0</v>
       </c>
-      <c r="C214" s="3" t="n">
+      <c r="C214" s="3">
         <v>373440.0</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="2">
         <v>44681.0</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="3">
         <v>965120.0</v>
       </c>
-      <c r="C215" s="3" t="n">
+      <c r="C215" s="3">
         <v>212340.0</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="2">
         <v>44712.0</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="3">
         <v>1622879.0</v>
       </c>
-      <c r="C216" s="3" t="n">
+      <c r="C216" s="3">
         <v>327101.0</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="2">
         <v>44742.0</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="3">
         <v>2221604.0</v>
       </c>
-      <c r="C217" s="3" t="n">
+      <c r="C217" s="3">
         <v>448791.0</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="2">
         <v>44773.0</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="3">
         <v>2174325.0</v>
       </c>
-      <c r="C218" s="3" t="n">
+      <c r="C218" s="3">
         <v>432461.0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="2">
         <v>44804.0</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="3">
         <v>2125260.0</v>
       </c>
-      <c r="C219" s="3" t="n">
+      <c r="C219" s="3">
         <v>492669.0</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="2">
         <v>44834.0</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="3">
         <v>2331769.0</v>
       </c>
-      <c r="C220" s="3" t="n">
+      <c r="C220" s="3">
         <v>506421.0</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="2">
         <v>44865.0</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="3">
         <v>2231197.0</v>
       </c>
-      <c r="C221" s="3" t="n">
+      <c r="C221" s="3">
         <v>508476.0</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="2">
         <v>44895.0</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="3">
         <v>2074816.0</v>
       </c>
-      <c r="C222" s="3" t="n">
+      <c r="C222" s="3">
         <v>572476.0</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="4" t="inlineStr">
-        <is>
-          <t>数据来源：Wind</t>
-        </is>
-      </c>
-    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="2">
+        <v>44896.0</v>
+      </c>
+      <c r="B223" s="5">
+        <v>2265024.0</v>
+      </c>
+      <c r="C223" s="3">
+        <v>568278.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E118D0C-4D04-459A-9FB5-AA6CD94717BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936FCC6-482B-470B-86A0-CC15BCAB1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_ Passenger Car" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936FCC6-482B-470B-86A0-CC15BCAB1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB4251-FD85-4399-B3AB-863E877149B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_ Passenger Car" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6FB1D-A278-49BF-9D28-E59D7EFE4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B30A4C-9FBD-4C4B-B655-B60DB6DFA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -529,13 +529,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B30A4C-9FBD-4C4B-B655-B60DB6DFA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C407D64-82F1-44F6-AA8C-5F77A2AD2A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C407D64-82F1-44F6-AA8C-5F77A2AD2A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E326D3-EE00-4BF3-ADE5-8AF49B383F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E326D3-EE00-4BF3-ADE5-8AF49B383F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1945567B-067B-4C12-A371-511A8297E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1945567B-067B-4C12-A371-511A8297E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5945A47-F96C-428F-B2EC-EC275C1E44E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5945A47-F96C-428F-B2EC-EC275C1E44E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4B88F-9AE1-4D08-948D-FF1EA1334034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4B88F-9AE1-4D08-948D-FF1EA1334034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D722F-DFE8-4088-AE0F-8338C77E2D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D722F-DFE8-4088-AE0F-8338C77E2D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CBB36-7FD0-4A9D-B4E6-AD505B226565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CBB36-7FD0-4A9D-B4E6-AD505B226565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823715C-183F-4B50-BC15-35AF6A3B6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823715C-183F-4B50-BC15-35AF6A3B6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CC873-6242-496B-A6D5-C6A7720F6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3212,6 +3215,17 @@
       </c>
       <c r="C244" s="3">
         <v>603447</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B245" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="C245" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CC873-6242-496B-A6D5-C6A7720F6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5262FC5-059A-472B-9B6C-E1BF714E4757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -104,10 +104,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-10-12</t>
+    <t>2024-10-15</t>
   </si>
 </sst>
 </file>
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3222,10 +3219,10 @@
         <v>45565</v>
       </c>
       <c r="B245" s="3">
-        <v>2525000</v>
+        <v>2525099</v>
       </c>
       <c r="C245" s="3">
-        <v>0</v>
+        <v>726111</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5262FC5-059A-472B-9B6C-E1BF714E4757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D721C-CF47-4ACD-87AD-B15B9174F68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D721C-CF47-4ACD-87AD-B15B9174F68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA289D99-0EF0-422C-A42A-3AD5D541D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA289D99-0EF0-422C-A42A-3AD5D541D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B0E3EE-46A0-4CC2-8A04-EAEDA6A98D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="16875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
   </si>
 </sst>
 </file>
@@ -525,9 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -612,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3223,6 +3228,17 @@
       </c>
       <c r="C245" s="3">
         <v>726111</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B246" s="3">
+        <v>2755000</v>
+      </c>
+      <c r="C246" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B0E3EE-46A0-4CC2-8A04-EAEDA6A98D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18325F8A-1CE7-4D5C-BC28-ACD503D5192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="16875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -104,10 +104,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-10-15</t>
-  </si>
-  <si>
-    <t>2024-11-12</t>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -530,17 +527,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -617,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3235,10 +3230,10 @@
         <v>45596</v>
       </c>
       <c r="B246" s="3">
-        <v>2755000</v>
+        <v>2754895</v>
       </c>
       <c r="C246" s="3">
-        <v>0</v>
+        <v>786221</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18325F8A-1CE7-4D5C-BC28-ACD503D5192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FA383-C33F-4CC8-9FB0-5B4D1D644593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3234,6 +3237,17 @@
       </c>
       <c r="C246" s="3">
         <v>786221</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B247" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FA383-C33F-4CC8-9FB0-5B4D1D644593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9227EA0-A6BD-4323-997A-9E938024493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -104,10 +104,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-11-15</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
+    <t>2024-12-15</t>
   </si>
 </sst>
 </file>
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3244,10 +3241,10 @@
         <v>45626</v>
       </c>
       <c r="B247" s="3">
-        <v>3001000</v>
+        <v>3001473</v>
       </c>
       <c r="C247" s="3">
-        <v>0</v>
+        <v>849737</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9227EA0-A6BD-4323-997A-9E938024493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A5B3D-E388-4029-B3D6-3086D64998CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -527,15 +527,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A5B3D-E388-4029-B3D6-3086D64998CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8064E0-F1F9-4721-8324-C61BFCEFE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-12-15</t>
+    <t>2025-01-15</t>
   </si>
 </sst>
 </file>
@@ -525,9 +525,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3247,6 +3247,17 @@
         <v>849737</v>
       </c>
     </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B248" s="3">
+        <v>3120031</v>
+      </c>
+      <c r="C248" s="3">
+        <v>901232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8064E0-F1F9-4721-8324-C61BFCEFE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B636030-854D-478A-B7F3-78642920DBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Passenger Car" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B636030-854D-478A-B7F3-78642920DBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7843E02D-C850-47B2-AF86-427A07C107FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3256,6 +3259,17 @@
       </c>
       <c r="C248" s="3">
         <v>901232</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B249" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="C249" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/car sales.xlsx
+++ b/inst/extdata/car sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7843E02D-C850-47B2-AF86-427A07C107FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E677E4-9219-4799-A899-E85A6974A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -104,10 +104,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
+    <t>2025-02-18</t>
   </si>
 </sst>
 </file>
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -3266,10 +3263,10 @@
         <v>45688</v>
       </c>
       <c r="B249" s="3">
-        <v>2133000</v>
+        <v>2133016</v>
       </c>
       <c r="C249" s="3">
-        <v>0</v>
+        <v>535179</v>
       </c>
     </row>
   </sheetData>
